--- a/results/mp/logistic/home-spam/confidence/168/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/168/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,34 +43,31 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>ended</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>bent</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>glasses</t>
   </si>
   <si>
     <t>broke</t>
@@ -79,213 +76,306 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>plates</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cracked</t>
   </si>
   <si>
     <t>returning</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>spray</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>glasses</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>filters</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>egg</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>barely</t>
-  </si>
-  <si>
-    <t>steam</t>
-  </si>
-  <si>
-    <t>unless</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>sticks</t>
-  </si>
-  <si>
-    <t>threw</t>
-  </si>
-  <si>
-    <t>defective</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>leaked</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>lid</t>
+    <t>after</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>side</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>sink</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>instructions</t>
+    <t>back</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>although</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>together</t>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>work</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>only</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
@@ -295,9 +385,6 @@
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -307,16 +394,22 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>great</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -677,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9911504424778761</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K3">
-        <v>0.921875</v>
+        <v>0.8203125</v>
       </c>
       <c r="L3">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="M3">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -788,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -796,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9629629629629629</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="K4">
-        <v>0.9139784946236559</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.96</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="K5">
-        <v>0.8508474576271187</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L5">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9583333333333334</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>0.8126934984520123</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>525</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>525</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9494949494949495</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.5928792569659442</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>383</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>383</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +1089,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9444444444444444</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1139,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9433962264150944</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,16 +1160,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="K9">
-        <v>0.6493506493506493</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L9">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9375</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1114,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="K10">
-        <v>0.5789473684210527</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1138,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1146,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9375</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="K11">
-        <v>0.3542857142857143</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="L11">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9322033898305084</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1214,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="K12">
-        <v>0.3153153153153153</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.925</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K13">
-        <v>0.1975308641975309</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.9135135135135135</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C14">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="K14">
-        <v>0.1902086677367576</v>
+        <v>0.1637239165329053</v>
       </c>
       <c r="L14">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M14">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1009</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.896551724137931</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,7 +1457,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15">
+        <v>0.05342465753424658</v>
+      </c>
+      <c r="L15">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>39</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1489,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8947368421052632</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,21 +1507,45 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16">
+        <v>0.02023121387283237</v>
+      </c>
+      <c r="L16">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>0.98</v>
+      </c>
+      <c r="O16">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8928571428571429</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,21 +1557,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17">
+        <v>0.003481894150417827</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>0.33</v>
+      </c>
+      <c r="O17">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8846153846153846</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8679245283018868</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.863013698630137</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,18 +1662,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.8571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1520,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.8484848484848485</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1546,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.8409090909090909</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>1143</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>1143</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1572,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.8387096774193549</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1598,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.8333333333333334</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1624,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.8235294117647058</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1653,18 +1818,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.8222222222222222</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C27">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1676,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.8062015503875969</v>
+        <v>0.5625</v>
       </c>
       <c r="C28">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1702,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.8</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C29">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1728,15 +1893,15 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.7894736842105263</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -1754,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.7894736842105263</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1780,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.7857142857142857</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1806,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1814,13 +1979,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.7830188679245284</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C33">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1832,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1840,13 +2005,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.78125</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1858,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1866,13 +2031,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.7714285714285715</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1884,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1892,13 +2057,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.7647058823529411</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1910,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1918,13 +2083,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.7619047619047619</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1936,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1944,13 +2109,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.7435897435897436</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C38">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1962,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1970,13 +2135,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.7407407407407407</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1988,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1996,13 +2161,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.7391304347826086</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2014,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2022,7 +2187,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.7391304347826086</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -2040,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2048,13 +2213,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.7272727272727273</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2066,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2074,13 +2239,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.7241379310344828</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2092,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2100,13 +2265,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.7162162162162162</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="C44">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2118,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2126,13 +2291,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.7090909090909091</v>
+        <v>0.3351351351351352</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2144,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2152,13 +2317,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.7058823529411765</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2170,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2178,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.6818181818181818</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C47">
         <v>15</v>
@@ -2196,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2204,13 +2369,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.6666666666666666</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C48">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2222,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2230,13 +2395,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.6666666666666666</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2248,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2256,13 +2421,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.6637168141592921</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C50">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D50">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2274,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2282,13 +2447,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.6538461538461539</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2300,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2308,13 +2473,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.6470588235294118</v>
+        <v>0.2825278810408922</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2326,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2334,13 +2499,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.6444444444444445</v>
+        <v>0.2755555555555556</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2352,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2360,13 +2525,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.6338028169014085</v>
+        <v>0.2723492723492724</v>
       </c>
       <c r="C54">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2378,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>26</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2386,13 +2551,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.6129032258064516</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2404,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2412,13 +2577,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.5714285714285714</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2430,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2438,13 +2603,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.5357142857142857</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2456,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2464,13 +2629,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.5185185185185185</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C58">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2482,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2490,13 +2655,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2508,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2516,13 +2681,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2534,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>26</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2542,7 +2707,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.4951456310679612</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="C61">
         <v>51</v>
@@ -2560,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>52</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2568,13 +2733,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.4942528735632184</v>
+        <v>0.19</v>
       </c>
       <c r="C62">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2586,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2594,13 +2759,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.4807692307692308</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2612,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2620,7 +2785,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.4545454545454545</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -2638,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2646,13 +2811,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.4285714285714285</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2664,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2672,13 +2837,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.4130434782608696</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2690,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2698,13 +2863,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.4123711340206185</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2716,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2724,13 +2889,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3902439024390244</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2742,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>25</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2750,13 +2915,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3829787234042553</v>
+        <v>0.125</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2768,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2776,13 +2941,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.3829787234042553</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2794,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2802,13 +2967,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.3777777777777778</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2820,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>28</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2828,13 +2993,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.3559322033898305</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2846,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2854,13 +3019,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3365384615384616</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="C73">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2872,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>69</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2880,13 +3045,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.3265306122448979</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2898,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>33</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2906,13 +3071,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.303030303030303</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2924,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>69</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2932,13 +3097,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2894736842105263</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2950,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2958,13 +3123,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2793296089385475</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C77">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D77">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2976,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>129</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2984,13 +3149,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.264367816091954</v>
+        <v>0.06236559139784946</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3002,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>64</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3010,13 +3175,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2</v>
+        <v>0.0580046403712297</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3028,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>80</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3036,13 +3201,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.07142857142857142</v>
+        <v>0.05783582089552239</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3054,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>195</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3062,13 +3227,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.05121293800539083</v>
+        <v>0.05741127348643006</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3080,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>352</v>
+        <v>903</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3088,25 +3253,779 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.02216427640156454</v>
+        <v>0.05518763796909492</v>
       </c>
       <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.05493562231759656</v>
+      </c>
+      <c r="C83">
+        <v>128</v>
+      </c>
+      <c r="D83">
+        <v>130</v>
+      </c>
+      <c r="E83">
+        <v>0.02</v>
+      </c>
+      <c r="F83">
+        <v>0.98</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.05337078651685393</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>0.05</v>
+      </c>
+      <c r="F84">
+        <v>0.95</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.05015673981191222</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.04823989569752282</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+      <c r="D86">
+        <v>37</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.04632152588555858</v>
+      </c>
+      <c r="C87">
         <v>17</v>
       </c>
-      <c r="D82">
+      <c r="D87">
         <v>17</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>750</v>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.0446521287642783</v>
+      </c>
+      <c r="C88">
+        <v>301</v>
+      </c>
+      <c r="D88">
+        <v>305</v>
+      </c>
+      <c r="E88">
+        <v>0.01</v>
+      </c>
+      <c r="F88">
+        <v>0.99</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.04353741496598639</v>
+      </c>
+      <c r="C89">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>32</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>0.06</v>
+      </c>
+      <c r="F90">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.03897550111358575</v>
+      </c>
+      <c r="C91">
+        <v>35</v>
+      </c>
+      <c r="D91">
+        <v>35</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.03861788617886179</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.03732394366197183</v>
+      </c>
+      <c r="C93">
+        <v>53</v>
+      </c>
+      <c r="D93">
+        <v>55</v>
+      </c>
+      <c r="E93">
+        <v>0.04</v>
+      </c>
+      <c r="F93">
+        <v>0.96</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.03719912472647702</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.03682934222491664</v>
+      </c>
+      <c r="C95">
+        <v>243</v>
+      </c>
+      <c r="D95">
+        <v>245</v>
+      </c>
+      <c r="E95">
+        <v>0.01</v>
+      </c>
+      <c r="F95">
+        <v>0.99</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.03300645778521884</v>
+      </c>
+      <c r="C96">
+        <v>138</v>
+      </c>
+      <c r="D96">
+        <v>140</v>
+      </c>
+      <c r="E96">
+        <v>0.01</v>
+      </c>
+      <c r="F96">
+        <v>0.99</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.03183023872679045</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.02950819672131148</v>
+      </c>
+      <c r="C98">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.02909298345693098</v>
+      </c>
+      <c r="C99">
+        <v>51</v>
+      </c>
+      <c r="D99">
+        <v>53</v>
+      </c>
+      <c r="E99">
+        <v>0.04</v>
+      </c>
+      <c r="F99">
+        <v>0.96</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.02824368613842298</v>
+      </c>
+      <c r="C100">
+        <v>293</v>
+      </c>
+      <c r="D100">
+        <v>301</v>
+      </c>
+      <c r="E100">
+        <v>0.03</v>
+      </c>
+      <c r="F100">
+        <v>0.97</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.02180376610505451</v>
+      </c>
+      <c r="C101">
+        <v>66</v>
+      </c>
+      <c r="D101">
+        <v>69</v>
+      </c>
+      <c r="E101">
+        <v>0.04</v>
+      </c>
+      <c r="F101">
+        <v>0.96</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.02163275817666753</v>
+      </c>
+      <c r="C102">
+        <v>84</v>
+      </c>
+      <c r="D102">
+        <v>88</v>
+      </c>
+      <c r="E102">
+        <v>0.05</v>
+      </c>
+      <c r="F102">
+        <v>0.95</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.02039082412914189</v>
+      </c>
+      <c r="C103">
+        <v>24</v>
+      </c>
+      <c r="D103">
+        <v>27</v>
+      </c>
+      <c r="E103">
+        <v>0.11</v>
+      </c>
+      <c r="F103">
+        <v>0.89</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.01917545541706616</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>22</v>
+      </c>
+      <c r="E104">
+        <v>0.09</v>
+      </c>
+      <c r="F104">
+        <v>0.91</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.01816347124117054</v>
+      </c>
+      <c r="C105">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.01780645161290323</v>
+      </c>
+      <c r="C106">
+        <v>69</v>
+      </c>
+      <c r="D106">
+        <v>72</v>
+      </c>
+      <c r="E106">
+        <v>0.04</v>
+      </c>
+      <c r="F106">
+        <v>0.96</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.01469317199654278</v>
+      </c>
+      <c r="C107">
+        <v>17</v>
+      </c>
+      <c r="D107">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.01447906830343091</v>
+      </c>
+      <c r="C108">
+        <v>46</v>
+      </c>
+      <c r="D108">
+        <v>54</v>
+      </c>
+      <c r="E108">
+        <v>0.15</v>
+      </c>
+      <c r="F108">
+        <v>0.85</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.01295620437956204</v>
+      </c>
+      <c r="C109">
+        <v>71</v>
+      </c>
+      <c r="D109">
+        <v>80</v>
+      </c>
+      <c r="E109">
+        <v>0.11</v>
+      </c>
+      <c r="F109">
+        <v>0.89</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>31</v>
+      </c>
+      <c r="E110">
+        <v>0.03</v>
+      </c>
+      <c r="F110">
+        <v>0.97</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.006939625260235947</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <v>45</v>
+      </c>
+      <c r="E111">
+        <v>0.33</v>
+      </c>
+      <c r="F111">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
